--- a/data/Aug 2023 MHDR/perinatal deaths national_monthly.xlsx
+++ b/data/Aug 2023 MHDR/perinatal deaths national_monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Aug 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A73199-5B4B-46DE-AA36-8DFEBB5F92BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C697F43-AFAE-42E2-B6CB-C28A4D1DD7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284376F4-204C-4DDE-A490-B666F6F9D3DD}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -1238,7 +1238,7 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <v>649</v>
+        <v>749</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
